--- a/DateBase/orders/Dang Nguyen_2025-6-30.xlsx
+++ b/DateBase/orders/Dang Nguyen_2025-6-30.xlsx
@@ -871,6 +871,9 @@
       <c r="G2" t="str">
         <v>079125301010101055101515510652010105152010510155551010101010510151010155</v>
       </c>
+      <c r="H2" t="str">
+        <v>CNY</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
